--- a/medicine/Enfance/Anne-Marie_Pol/Anne-Marie_Pol.xlsx
+++ b/medicine/Enfance/Anne-Marie_Pol/Anne-Marie_Pol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anne-Marie Pol est un mannequin et écrivaine française née le 31 octobre 1958 à Rabat au Maroc.  Elle est spécialisée dans la littérature pour enfants. Elle est surtout connue pour sa série Danse ! parue aux éditions Pocket Jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née à Rabat, aînée de six enfants, Anne Marie Pol a grandi entre le Sénégal, le Congo, Chantilly, Cannes, et la Bretagne. Elle a passé de longues années en Espagne[1] où elle fut actrice et mannequin. Elle est titulaire d'une maîtrise d'études théâtrales à la Sorbonne (Paris III). Elle vit aujourd'hui près de Paris. Elle appelle ses héros « ses enfants de papier ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née à Rabat, aînée de six enfants, Anne Marie Pol a grandi entre le Sénégal, le Congo, Chantilly, Cannes, et la Bretagne. Elle a passé de longues années en Espagne où elle fut actrice et mannequin. Elle est titulaire d'une maîtrise d'études théâtrales à la Sorbonne (Paris III). Elle vit aujourd'hui près de Paris. Elle appelle ses héros « ses enfants de papier ».
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Danse !
-Nina, graine d'étoile
+          <t>Danse !</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nina, graine d'étoile
 A moi de choisir
 Embrouilles en coulisses
 Sur un air de hip hop
@@ -588,8 +607,43 @@
 Les secrets de Nina (Hors Série)
 Les ballets de Nina (Hors Série)
 Il y a eu une interruption de parution d'un an entre le numéro 33 et le numéro 34.
-Les 3 copines
-Une rentrée qui déménage...
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les 3 copines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Une rentrée qui déménage...
 Les filles au pouvoir !
 L'Abominable Homme des Maths
 Une société très, très secrète
@@ -600,33 +654,204 @@
 Collège Hollywood 
 A l'année prochaine ? 
 Ami un jour, ami toujours
-Un mariage et 3 copines
-Romans historiques
-À l'aube de la révolution russe
+Un mariage et 3 copines</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans historiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>À l'aube de la révolution russe
 Promenade par temps de guerre
 Mon ennemi, mon amour
 Papillon de papier
 10 récits de danse classique
-Rachel : le théâtre ou la vie
-Yanoël
-Par le cœur et par l'épée
+Rachel : le théâtre ou la vie</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Yanoël</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Par le cœur et par l'épée
 Pour l'amour d'Iselda
 À cause d'un serment
-Le chevalier au chardon bleu (2004)
-Le destin de l'esquirol
-Baladin de la Reine - T1(2018)
+Le chevalier au chardon bleu (2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le destin de l'esquirol</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baladin de la Reine - T1(2018)
 Chevalier du roi captif T2 (2019)
 Défenseur des oubliés T3 (2020)
-Romans sur la danse
-Lilou danseuse
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans sur la danse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lilou danseuse
 Le sang des étoiles
 À quoi rêve une danseuse
 C'est moi qui décide!
 Du côté des étoiles
 La star du Carlton
-Yzé
-Autres romans
-Aimées ou pas
+Yzé</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aimées ou pas
 Chacun son tour
 La vie d'abord
 Soledad ou la maison aux yeux fermés
@@ -640,48 +865,152 @@
 On ne joue plus, Roméo !
 Un goût d'orage (parue aussi sous le titre Une fille en trop)
 Mon cheval de papier
-Coloc' d'enfer 
-Nouvelles (seule ou en collaboration avec d'autres auteurs)
-Un amour d'enfance
+Coloc' d'enfer </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles (seule ou en collaboration avec d'autres auteurs)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Un amour d'enfance
 Crimes glacés
 Parle moi d'amour
 Entretiens avec le diable
-L'Amour fantôme : Suivi de La Robe de mariée et autres nouvelles
-Traductions
-Série Julie et Jess de Lucy Daniels (traduit de l'anglais)
+L'Amour fantôme : Suivi de La Robe de mariée et autres nouvelles</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Série Julie et Jess de Lucy Daniels (traduit de l'anglais)
 Romans de la série Cœur Grenadine sous des pseudonymes (Anaïs Berger)
-Vif Argent" de Joseph Vallerdu (traduit de l'espagnol)
-Autres
- Chroniques d'un malentendu littéraire (essai)
+Vif Argent" de Joseph Vallerdu (traduit de l'espagnol)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chroniques d'un malentendu littéraire (essai)
  Aurore (novélisation)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anne-Marie_Pol</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Pol</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anne-Marie_Pol</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>1980 : La Ballade de la féconductrice de Laurent Boutonnat : la Sainte Vierge</t>
         </is>
